--- a/outputs-r202/g__RUG721_train.xlsx
+++ b/outputs-r202/g__RUG721_train.xlsx
@@ -624,7 +624,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_1.fasta</t>
+          <t>RS_GCF_004010535.1_11.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -645,7 +645,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_12.fasta</t>
+          <t>RS_GCF_004010535.1_9.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -666,7 +666,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_17.fasta</t>
+          <t>RS_GCF_004010535.1_14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -687,7 +687,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_18.fasta</t>
+          <t>RS_GCF_004010535.1_19.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_13.fasta</t>
+          <t>RS_GCF_004010535.1_3.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -729,7 +729,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_15.fasta</t>
+          <t>RS_GCF_004010535.1_5.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -750,7 +750,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_16.fasta</t>
+          <t>RS_GCF_004010535.1_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,7 +771,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_7.fasta</t>
+          <t>RS_GCF_004010535.1_10.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -792,7 +792,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_0.fasta</t>
+          <t>RS_GCF_004010535.1_2.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -813,7 +813,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_10.fasta</t>
+          <t>RS_GCF_004010535.1_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,28 +834,28 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_2.fasta</t>
+          <t>RS_GCF_004010535.1_6.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.35</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.65</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.65</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>s__RUG721 sp004010535</t>
+          <t>s__RUG721 sp900321745</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_4.fasta</t>
+          <t>RS_GCF_004010535.1_8.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,28 +876,28 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_6.fasta</t>
+          <t>RS_GCF_004010535.1_13.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.35</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.65</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.65</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>s__RUG721 sp900321745</t>
+          <t>s__RUG721 sp004010535</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_8.fasta</t>
+          <t>RS_GCF_004010535.1_15.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_14.fasta</t>
+          <t>RS_GCF_004010535.1_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_19.fasta</t>
+          <t>RS_GCF_004010535.1_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_3.fasta</t>
+          <t>RS_GCF_004010535.1_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_5.fasta</t>
+          <t>RS_GCF_004010535.1_12.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_11.fasta</t>
+          <t>RS_GCF_004010535.1_17.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004010535.1_9.fasta</t>
+          <t>RS_GCF_004010535.1_18.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1216,7 +1216,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902763965.1_10.fasta</t>
+          <t>GB_GCA_902763965.1_3.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1237,7 +1237,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902773765.1_3.fasta</t>
+          <t>GB_GCA_902777515.1_14.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1258,7 +1258,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777515.1_7.fasta</t>
+          <t>GB_GCA_902778495.1_8.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1279,7 +1279,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902786175.1_0.fasta</t>
+          <t>GB_GCA_902778495.1_9.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1300,7 +1300,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902793445.1_7.fasta</t>
+          <t>GB_GCA_902789845.1_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902795065.1_10.fasta</t>
+          <t>GB_GCA_902793415.1_15.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1342,17 +1342,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900321745.1_11.fasta</t>
+          <t>GB_GCA_902793415.1_19.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902773765.1_12.fasta</t>
+          <t>GB_GCA_902793445.1_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1384,17 +1384,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777515.1_0.fasta</t>
+          <t>GB_GCA_902763965.1_0.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778495.1_14.fasta</t>
+          <t>GB_GCA_902763965.1_15.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1426,7 +1426,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902786175.1_13.fasta</t>
+          <t>GB_GCA_902778495.1_7.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1447,7 +1447,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902786175.1_15.fasta</t>
+          <t>GB_GCA_902788025.1_1.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1468,7 +1468,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902773765.1_6.fasta</t>
+          <t>GB_GCA_902789845.1_4.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1489,7 +1489,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777515.1_16.fasta</t>
+          <t>GB_GCA_902793445.1_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1510,7 +1510,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902788025.1_3.fasta</t>
+          <t>GB_GCA_902773765.1_6.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1531,17 +1531,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902795065.1_17.fasta</t>
+          <t>GB_GCA_902777515.1_16.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1552,17 +1552,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902763965.1_0.fasta</t>
+          <t>GB_GCA_902788025.1_3.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1573,17 +1573,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902763965.1_15.fasta</t>
+          <t>GB_GCA_902795065.1_17.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1594,17 +1594,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778495.1_7.fasta</t>
+          <t>GB_GCA_900321745.1_11.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902788025.1_1.fasta</t>
+          <t>GB_GCA_902773765.1_12.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1636,7 +1636,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902789845.1_4.fasta</t>
+          <t>GB_GCA_902777515.1_0.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1657,7 +1657,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902793445.1_10.fasta</t>
+          <t>GB_GCA_902778495.1_14.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1678,7 +1678,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902763965.1_3.fasta</t>
+          <t>GB_GCA_902786175.1_13.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1699,7 +1699,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777515.1_14.fasta</t>
+          <t>GB_GCA_902786175.1_15.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1720,7 +1720,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778495.1_8.fasta</t>
+          <t>GB_GCA_902763965.1_10.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1741,7 +1741,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778495.1_9.fasta</t>
+          <t>GB_GCA_902773765.1_3.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1762,7 +1762,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902789845.1_0.fasta</t>
+          <t>GB_GCA_902777515.1_7.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1783,7 +1783,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902793415.1_15.fasta</t>
+          <t>GB_GCA_902786175.1_0.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1804,7 +1804,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902793415.1_19.fasta</t>
+          <t>GB_GCA_902793445.1_7.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1825,7 +1825,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902793445.1_11.fasta</t>
+          <t>GB_GCA_902795065.1_10.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
